--- a/files/source.xlsx
+++ b/files/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6BDFF4-0601-4C63-BDA1-BEA20B351DE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="1141">
   <si>
     <t>230281590020965</t>
   </si>
@@ -3443,6 +3442,14 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -3452,7 +3459,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3862,11 +3869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3968,7 +3975,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
-        <v>5</v>
+        <v>1140</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>6</v>
@@ -4084,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>1139</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>6</v>
